--- a/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
+++ b/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\heimathafen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A6E52-3A3B-4C53-A236-7C648D1B4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D731E-9E6E-4D0A-9C07-636B6202A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heimathafen" sheetId="2" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>Datenanbieter</t>
-  </si>
-  <si>
     <t>Unternehmenseigentum und Eigentümerstruktur</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Kernkompetenzen und Geschäftsbereiche</t>
   </si>
   <si>
-    <t>Bitte beschreiben Sie kurz Ihre Kernkompetenzen und Geschäftsfelder</t>
-  </si>
-  <si>
     <t>NACE codes</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
   </si>
   <si>
     <t>Wie viele Mitarbeiter in Ihrem Unternehmen sind für den ESG-Bereich in Ihrem Unternehmen verantwortlich</t>
-  </si>
-  <si>
-    <t>Number</t>
   </si>
   <si>
     <t>Methodik</t>
@@ -150,14 +141,7 @@
     <t>Wie ist Ihre Ratingskala definiert?</t>
   </si>
   <si>
-    <t>Bewertung aktuell</t>
-  </si>
-  <si>
     <t>Wie stellen Sie die Aktualität ihrer Ratings sicher? Wie häufig/in welchen Zeitabständen werden Updates zur Verfügung gestellt?</t>
-  </si>
-  <si>
-    <t>Erfolgen Ihre Ratings unabhängig (von Kunden, Kooperationspartnern, Unternehmen, etc.)
-Welche Parteien können aktiv Einfluss auf die Gestaltung des Ratings nehmen?</t>
   </si>
   <si>
     <t>Datenerfassung</t>
@@ -167,9 +151,6 @@
 Hier sollten Angaben zur Vorgehensweise bei der Datenerhebung gemacht werden, z.B. mithilfe eines Fragebogens, Interviews, etc.</t>
   </si>
   <si>
-    <t>Die Methodik umfasst Umwelt, Soziales und Governance</t>
-  </si>
-  <si>
     <t>Deckt die Methodik die Bereiche Umwelt, Soziales und Governance ab?
 Hier sollte darauf eingangen werden, ob die Methodik alle drei Bereiche abdeckt oder ein Fokus auf bestimmte Themenbereiche vorliegt.</t>
   </si>
@@ -202,9 +183,6 @@
 Bei einer Methodik muss sichergestellt werden, dass mehrere Anwender zum selben Ergebnis kommen. Angaben dazu, wie das gewährleistet wird.</t>
   </si>
   <si>
-    <t>Minimieren oder verhindern Sie subjektive Faktoren</t>
-  </si>
-  <si>
     <t>Wie werden subjektive Einflussfaktoren minimiert bzw. verhindert?
 Subjektive Einschätzungen spielen im Rating Markt eine große Rolle, Angaben dazu, wie Subjektivität reduziert wird. (z.B. durch Vier-Augen Prinzip, automatische Prozesse)</t>
   </si>
@@ -325,10 +303,6 @@
     <t>Methodik für ökologische Nachhaltigkeitsrisiken</t>
   </si>
   <si>
-    <t>Werden Nachhaltigkeitsrisiken bezogen auf den Bereich Umwelt in der Methodik abgebildet?
-Nachhaltigkeitsrisiken können einen wesentlichen negativen Einfluss auf die Performance eines Unternehmens haben. Angaben dazu, ob Nachhaltigkeitsrisiken aus dem Bereich Umwelt in der Methodik abgebildet werden.</t>
-  </si>
-  <si>
     <t>Kartierte Risiken für die ökologische Nachhaltigkeit</t>
   </si>
   <si>
@@ -530,10 +504,6 @@
     <t>Methodik Soziale Nachhaltigkeitsrisiken</t>
   </si>
   <si>
-    <t>Werden Nachhaltigkeitsrisiken bezogen auf den Bereich Soziales in der Methodik abgebildet?
-Nachhaltigkeitsrisiken können einen wesentlichen negativen Einfluss auf die Performance eines Unternehmens haben. Angaben dazu, ob Nachhaltigkeitsrisiken aus dem Bereich Soziales in der Methodik abgebildet werden.</t>
-  </si>
-  <si>
     <t>Kartierte soziale Nachhaltigkeitsrisiken</t>
   </si>
   <si>
@@ -1108,6 +1078,36 @@
   </si>
   <si>
     <t>FreeText</t>
+  </si>
+  <si>
+    <t>Unternehmen</t>
+  </si>
+  <si>
+    <t>Erfolgen Ihre Ratings unabhängig (von Kunden, Kooperationspartnern, Unternehmen, etc.)?
+Welche Parteien können aktiv Einfluss auf die Gestaltung des Ratings nehmen?</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Bitte wählen Sie Ihre Kernkompetenzen und Geschäftsfelder</t>
+  </si>
+  <si>
+    <t>Aktualität der Ratings</t>
+  </si>
+  <si>
+    <t>Methodik umfasst Umwelt, Soziales und Governance</t>
+  </si>
+  <si>
+    <t>Minimierung oder Verhinderung subjektiver Faktoren</t>
+  </si>
+  <si>
+    <t>Werden Nachhaltigkeitsrisiken bezogen auf den Bereich Umwelt in der Methodik abgebildet?
+Nachhaltigkeitsrisiken können einen wesentlichen negativen Einfluss auf die Performance eines Unternehmens haben.</t>
+  </si>
+  <si>
+    <t>Werden Nachhaltigkeitsrisiken bezogen auf den Bereich Soziales in der Methodik abgebildet?
+Nachhaltigkeitsrisiken können einen wesentlichen negativen Einfluss auf die Performance eines Unternehmens haben.</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1487,6 +1487,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1771,15 +1774,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA20BB-8F3E-44CB-A7F2-F957706EDEE9}">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D214" workbookViewId="0">
-      <selection activeCell="K243" sqref="K243"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="F263" sqref="F263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="19" style="27"/>
     <col min="3" max="3" width="31" style="27" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="42.54296875" style="28" customWidth="1"/>
     <col min="5" max="5" width="116.54296875" style="28" customWidth="1"/>
     <col min="6" max="12" width="19" style="28"/>
     <col min="13" max="16384" width="19" style="7"/>
@@ -1814,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -1831,16 +1834,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1857,16 +1860,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1883,16 +1886,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1909,16 +1912,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1935,16 +1938,16 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1961,16 +1964,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1987,16 +1990,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2013,16 +2016,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -2031,7 +2034,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2039,16 +2042,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>315</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>319</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2065,16 +2068,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2091,16 +2094,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2117,16 +2120,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -2143,16 +2146,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2169,16 +2172,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -2195,16 +2198,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -2221,16 +2224,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -2247,16 +2250,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -2273,16 +2276,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -2299,16 +2302,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -2325,16 +2328,16 @@
         <v>11</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -2351,16 +2354,16 @@
         <v>11</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -2377,16 +2380,16 @@
         <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -2403,16 +2406,16 @@
         <v>11</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2421,7 +2424,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L24" s="13"/>
     </row>
@@ -2433,16 +2436,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -2451,7 +2454,7 @@
         <v>22</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L25" s="13"/>
     </row>
@@ -2463,16 +2466,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2481,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -2493,16 +2496,16 @@
         <v>11</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -2519,16 +2522,16 @@
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2537,7 +2540,7 @@
         <v>25</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L28" s="13"/>
     </row>
@@ -2549,16 +2552,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2567,7 +2570,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L29" s="13"/>
     </row>
@@ -2579,16 +2582,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2597,7 +2600,7 @@
         <v>25</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -2609,16 +2612,16 @@
         <v>11</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2635,16 +2638,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2661,16 +2664,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2679,24 +2682,24 @@
       <c r="K33" s="12"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2710,17 +2713,17 @@
         <v>32.1</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -2729,7 +2732,7 @@
         <v>32</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L35" s="13"/>
     </row>
@@ -2738,19 +2741,19 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2759,7 +2762,7 @@
         <v>32</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -2768,19 +2771,19 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -2789,7 +2792,7 @@
         <v>32</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L37" s="13"/>
     </row>
@@ -2798,19 +2801,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="E38" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="F38" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -2819,7 +2822,7 @@
         <v>32</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -2828,19 +2831,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -2849,7 +2852,7 @@
         <v>32</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L39" s="13"/>
     </row>
@@ -2858,19 +2861,19 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -2879,7 +2882,7 @@
         <v>32</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L40" s="13"/>
     </row>
@@ -2888,19 +2891,19 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -2914,17 +2917,17 @@
         <v>38.1</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2933,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L42" s="13"/>
     </row>
@@ -2942,19 +2945,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2963,7 +2966,7 @@
         <v>38</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L43" s="13"/>
     </row>
@@ -2972,19 +2975,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2998,17 +3001,17 @@
         <v>40.1</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -3017,7 +3020,7 @@
         <v>40</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L45" s="13"/>
     </row>
@@ -3026,17 +3029,17 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3045,7 +3048,7 @@
         <v>40</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L46" s="13"/>
     </row>
@@ -3054,19 +3057,19 @@
         <v>41</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3075,7 +3078,7 @@
         <v>40</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L47" s="13"/>
     </row>
@@ -3084,19 +3087,19 @@
         <v>42</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -3105,7 +3108,7 @@
         <v>40</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L48" s="13"/>
     </row>
@@ -3114,19 +3117,19 @@
         <v>43</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -3135,7 +3138,7 @@
         <v>40</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L49" s="13"/>
     </row>
@@ -3144,19 +3147,19 @@
         <v>44</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="E50" s="12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -3165,7 +3168,7 @@
         <v>40</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L50" s="13"/>
     </row>
@@ -3174,19 +3177,19 @@
         <v>45</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -3200,17 +3203,17 @@
         <v>45.1</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3219,7 +3222,7 @@
         <v>45</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L52" s="13"/>
     </row>
@@ -3228,19 +3231,19 @@
         <v>46</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F53" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3249,7 +3252,7 @@
         <v>45</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L53" s="13"/>
     </row>
@@ -3258,19 +3261,19 @@
         <v>47</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3279,7 +3282,7 @@
         <v>45</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L54" s="13"/>
     </row>
@@ -3288,19 +3291,19 @@
         <v>48</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -3309,7 +3312,7 @@
         <v>45</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L55" s="13"/>
     </row>
@@ -3318,19 +3321,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -3339,7 +3342,7 @@
         <v>45</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L56" s="13"/>
     </row>
@@ -3348,19 +3351,19 @@
         <v>50</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -3374,17 +3377,17 @@
         <v>50.1</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -3393,7 +3396,7 @@
         <v>50</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L58" s="13"/>
     </row>
@@ -3402,19 +3405,19 @@
         <v>51</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3423,7 +3426,7 @@
         <v>50</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L59" s="13"/>
     </row>
@@ -3432,19 +3435,19 @@
         <v>52</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -3453,7 +3456,7 @@
         <v>50</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L60" s="13"/>
     </row>
@@ -3462,19 +3465,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -3483,7 +3486,7 @@
         <v>50</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L61" s="13"/>
     </row>
@@ -3492,19 +3495,19 @@
         <v>54</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -3513,7 +3516,7 @@
         <v>50</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L62" s="13"/>
     </row>
@@ -3522,19 +3525,19 @@
         <v>55</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -3548,17 +3551,17 @@
         <v>55.1</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -3567,7 +3570,7 @@
         <v>55</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L64" s="13"/>
     </row>
@@ -3576,19 +3579,19 @@
         <v>56</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D65" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F65" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -3597,7 +3600,7 @@
         <v>55</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L65" s="13"/>
     </row>
@@ -3606,19 +3609,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -3627,7 +3630,7 @@
         <v>55</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L66" s="13"/>
     </row>
@@ -3636,19 +3639,19 @@
         <v>58</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -3657,7 +3660,7 @@
         <v>55</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L67" s="13"/>
     </row>
@@ -3666,19 +3669,19 @@
         <v>59</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -3687,7 +3690,7 @@
         <v>55</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L68" s="13"/>
     </row>
@@ -3696,19 +3699,19 @@
         <v>60</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -3722,17 +3725,17 @@
         <v>60.1</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -3741,7 +3744,7 @@
         <v>60</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L70" s="13"/>
     </row>
@@ -3750,19 +3753,19 @@
         <v>61</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D71" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F71" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -3771,7 +3774,7 @@
         <v>60</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L71" s="13"/>
     </row>
@@ -3780,19 +3783,19 @@
         <v>62</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -3801,7 +3804,7 @@
         <v>60</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L72" s="13"/>
     </row>
@@ -3810,19 +3813,19 @@
         <v>63</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -3831,7 +3834,7 @@
         <v>60</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L73" s="13"/>
     </row>
@@ -3840,19 +3843,19 @@
         <v>64</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -3861,7 +3864,7 @@
         <v>60</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L74" s="13"/>
     </row>
@@ -3870,19 +3873,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -3896,19 +3899,19 @@
         <v>66</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -3922,17 +3925,17 @@
         <v>66.099999999999994</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -3941,7 +3944,7 @@
         <v>66</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L77" s="13"/>
     </row>
@@ -3950,19 +3953,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -3971,7 +3974,7 @@
         <v>66</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L78" s="13"/>
     </row>
@@ -3980,19 +3983,19 @@
         <v>68</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -4001,7 +4004,7 @@
         <v>66</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L79" s="13"/>
     </row>
@@ -4010,19 +4013,19 @@
         <v>69</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -4031,7 +4034,7 @@
         <v>66</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L80" s="13"/>
     </row>
@@ -4040,19 +4043,19 @@
         <v>70</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -4066,17 +4069,17 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -4085,7 +4088,7 @@
         <v>70</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L82" s="13"/>
     </row>
@@ -4094,19 +4097,19 @@
         <v>71</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -4115,7 +4118,7 @@
         <v>70</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L83" s="13"/>
     </row>
@@ -4124,19 +4127,19 @@
         <v>72</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -4145,7 +4148,7 @@
         <v>70</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L84" s="13"/>
     </row>
@@ -4154,19 +4157,19 @@
         <v>73</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -4175,28 +4178,28 @@
         <v>70</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>74</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>326</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -4210,17 +4213,17 @@
         <v>74.099999999999994</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -4229,7 +4232,7 @@
         <v>74</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L87" s="13"/>
     </row>
@@ -4238,19 +4241,19 @@
         <v>75</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -4259,7 +4262,7 @@
         <v>74</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L88" s="13"/>
     </row>
@@ -4268,19 +4271,19 @@
         <v>76</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -4289,7 +4292,7 @@
         <v>74</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L89" s="13"/>
     </row>
@@ -4298,19 +4301,19 @@
         <v>77</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -4324,19 +4327,19 @@
         <v>78</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="E91" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -4350,19 +4353,19 @@
         <v>79</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -4376,19 +4379,19 @@
         <v>80</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -4402,17 +4405,17 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -4421,7 +4424,7 @@
         <v>80</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L94" s="13"/>
     </row>
@@ -4430,19 +4433,19 @@
         <v>81</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -4451,7 +4454,7 @@
         <v>80</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L95" s="13"/>
     </row>
@@ -4460,19 +4463,19 @@
         <v>82</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -4486,17 +4489,17 @@
         <v>82.1</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -4505,7 +4508,7 @@
         <v>82</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L97" s="13"/>
     </row>
@@ -4514,19 +4517,19 @@
         <v>83</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -4535,7 +4538,7 @@
         <v>82</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L98" s="13"/>
     </row>
@@ -4544,19 +4547,19 @@
         <v>84</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -4565,7 +4568,7 @@
         <v>82</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L99" s="13"/>
     </row>
@@ -4574,19 +4577,19 @@
         <v>85</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -4595,7 +4598,7 @@
         <v>82</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L100" s="13"/>
     </row>
@@ -4604,19 +4607,19 @@
         <v>86</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
@@ -4625,7 +4628,7 @@
         <v>82</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L101" s="13"/>
     </row>
@@ -4634,19 +4637,19 @@
         <v>87</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
@@ -4660,17 +4663,17 @@
         <v>87.1</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -4679,7 +4682,7 @@
         <v>87</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L103" s="13"/>
     </row>
@@ -4688,19 +4691,19 @@
         <v>88</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -4709,7 +4712,7 @@
         <v>87</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L104" s="13"/>
     </row>
@@ -4718,19 +4721,19 @@
         <v>89</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -4739,7 +4742,7 @@
         <v>87</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L105" s="13"/>
     </row>
@@ -4748,19 +4751,19 @@
         <v>90</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -4769,7 +4772,7 @@
         <v>87</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L106" s="13"/>
     </row>
@@ -4778,19 +4781,19 @@
         <v>91</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -4799,7 +4802,7 @@
         <v>87</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L107" s="13"/>
     </row>
@@ -4808,19 +4811,19 @@
         <v>92</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -4834,19 +4837,19 @@
         <v>93</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -4860,17 +4863,17 @@
         <v>93.1</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -4879,7 +4882,7 @@
         <v>93</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L110" s="13"/>
     </row>
@@ -4888,19 +4891,19 @@
         <v>94</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -4909,7 +4912,7 @@
         <v>93</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L111" s="13"/>
     </row>
@@ -4918,19 +4921,19 @@
         <v>95</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -4939,7 +4942,7 @@
         <v>93</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L112" s="13"/>
     </row>
@@ -4948,19 +4951,19 @@
         <v>96</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -4969,7 +4972,7 @@
         <v>93</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L113" s="13"/>
     </row>
@@ -4978,19 +4981,19 @@
         <v>97</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -5004,17 +5007,17 @@
         <v>97.1</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -5023,7 +5026,7 @@
         <v>97</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L115" s="13"/>
     </row>
@@ -5032,19 +5035,19 @@
         <v>98</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -5053,7 +5056,7 @@
         <v>97</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L116" s="13"/>
     </row>
@@ -5062,19 +5065,19 @@
         <v>99</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -5083,7 +5086,7 @@
         <v>97</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L117" s="13"/>
     </row>
@@ -5092,19 +5095,19 @@
         <v>100</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
@@ -5118,17 +5121,17 @@
         <v>100.1</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -5137,7 +5140,7 @@
         <v>100</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L119" s="13"/>
     </row>
@@ -5146,19 +5149,19 @@
         <v>101</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -5167,7 +5170,7 @@
         <v>100</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L120" s="13"/>
     </row>
@@ -5176,19 +5179,19 @@
         <v>102</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -5197,7 +5200,7 @@
         <v>100</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L121" s="13"/>
     </row>
@@ -5206,19 +5209,19 @@
         <v>103</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
@@ -5227,7 +5230,7 @@
         <v>100</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L122" s="13"/>
     </row>
@@ -5236,19 +5239,19 @@
         <v>104</v>
       </c>
       <c r="B123" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="E123" s="12" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
@@ -5262,17 +5265,17 @@
         <v>104.1</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
@@ -5281,7 +5284,7 @@
         <v>104</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L124" s="13"/>
     </row>
@@ -5290,19 +5293,19 @@
         <v>105</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -5311,7 +5314,7 @@
         <v>104</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L125" s="13"/>
     </row>
@@ -5320,19 +5323,19 @@
         <v>106</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -5341,7 +5344,7 @@
         <v>104</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L126" s="13"/>
     </row>
@@ -5350,19 +5353,19 @@
         <v>107</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -5376,17 +5379,17 @@
         <v>107.1</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -5395,7 +5398,7 @@
         <v>107</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L128" s="13"/>
     </row>
@@ -5404,19 +5407,19 @@
         <v>108</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -5425,7 +5428,7 @@
         <v>107</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L129" s="13"/>
     </row>
@@ -5434,19 +5437,19 @@
         <v>109</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -5455,7 +5458,7 @@
         <v>107</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L130" s="13"/>
     </row>
@@ -5464,19 +5467,19 @@
         <v>110</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
@@ -5485,7 +5488,7 @@
         <v>107</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L131" s="13"/>
     </row>
@@ -5497,16 +5500,16 @@
         <v>11</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
@@ -5523,14 +5526,14 @@
         <v>11</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -5539,7 +5542,7 @@
         <v>111</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L133" s="13"/>
     </row>
@@ -5551,16 +5554,16 @@
         <v>11</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -5569,7 +5572,7 @@
         <v>111</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L134" s="13"/>
     </row>
@@ -5581,16 +5584,16 @@
         <v>11</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
@@ -5599,7 +5602,7 @@
         <v>111</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L135" s="13"/>
     </row>
@@ -5611,16 +5614,16 @@
         <v>11</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
@@ -5629,7 +5632,7 @@
         <v>111</v>
       </c>
       <c r="K136" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L136" s="13"/>
     </row>
@@ -5641,16 +5644,16 @@
         <v>11</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
@@ -5659,7 +5662,7 @@
         <v>111</v>
       </c>
       <c r="K137" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L137" s="13"/>
     </row>
@@ -5671,16 +5674,16 @@
         <v>11</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
@@ -5697,14 +5700,14 @@
         <v>11</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -5713,7 +5716,7 @@
         <v>116</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L139" s="13"/>
     </row>
@@ -5725,16 +5728,16 @@
         <v>11</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
@@ -5743,7 +5746,7 @@
         <v>116</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L140" s="13"/>
     </row>
@@ -5755,16 +5758,16 @@
         <v>11</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
@@ -5773,7 +5776,7 @@
         <v>116</v>
       </c>
       <c r="K141" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L141" s="13"/>
     </row>
@@ -5785,16 +5788,16 @@
         <v>11</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -5803,7 +5806,7 @@
         <v>116</v>
       </c>
       <c r="K142" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L142" s="13"/>
     </row>
@@ -5815,16 +5818,16 @@
         <v>11</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
@@ -5833,7 +5836,7 @@
         <v>116</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L143" s="13"/>
     </row>
@@ -5845,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
@@ -5871,14 +5874,14 @@
         <v>11</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
@@ -5887,7 +5890,7 @@
         <v>121</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L145" s="13"/>
     </row>
@@ -5899,16 +5902,16 @@
         <v>11</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
@@ -5917,7 +5920,7 @@
         <v>121</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L146" s="13"/>
     </row>
@@ -5929,16 +5932,16 @@
         <v>11</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -5947,7 +5950,7 @@
         <v>121</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L147" s="13"/>
     </row>
@@ -5959,16 +5962,16 @@
         <v>11</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -5977,7 +5980,7 @@
         <v>121</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L148" s="13"/>
     </row>
@@ -5989,16 +5992,16 @@
         <v>11</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -6007,7 +6010,7 @@
         <v>121</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L149" s="13"/>
     </row>
@@ -6019,16 +6022,16 @@
         <v>11</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
@@ -6045,14 +6048,14 @@
         <v>11</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
@@ -6061,7 +6064,7 @@
         <v>126</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L151" s="13"/>
     </row>
@@ -6073,16 +6076,16 @@
         <v>11</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -6091,7 +6094,7 @@
         <v>126</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L152" s="13"/>
     </row>
@@ -6103,16 +6106,16 @@
         <v>11</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -6121,7 +6124,7 @@
         <v>126</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L153" s="13"/>
     </row>
@@ -6133,16 +6136,16 @@
         <v>11</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -6151,7 +6154,7 @@
         <v>126</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L154" s="13"/>
     </row>
@@ -6163,16 +6166,16 @@
         <v>11</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -6181,7 +6184,7 @@
         <v>126</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L155" s="13"/>
     </row>
@@ -6193,16 +6196,16 @@
         <v>11</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
@@ -6219,14 +6222,14 @@
         <v>11</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
@@ -6235,7 +6238,7 @@
         <v>131</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L157" s="13"/>
     </row>
@@ -6247,16 +6250,16 @@
         <v>11</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -6265,7 +6268,7 @@
         <v>131</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L158" s="13"/>
     </row>
@@ -6277,16 +6280,16 @@
         <v>11</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -6295,7 +6298,7 @@
         <v>131</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L159" s="13"/>
     </row>
@@ -6307,16 +6310,16 @@
         <v>11</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -6325,7 +6328,7 @@
         <v>131</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L160" s="13"/>
     </row>
@@ -6337,16 +6340,16 @@
         <v>11</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
@@ -6355,7 +6358,7 @@
         <v>131</v>
       </c>
       <c r="K161" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L161" s="13"/>
     </row>
@@ -6367,16 +6370,16 @@
         <v>11</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
@@ -6393,14 +6396,14 @@
         <v>11</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -6409,7 +6412,7 @@
         <v>136</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L163" s="13"/>
     </row>
@@ -6421,16 +6424,16 @@
         <v>11</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -6439,7 +6442,7 @@
         <v>136</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L164" s="13"/>
     </row>
@@ -6451,16 +6454,16 @@
         <v>11</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
@@ -6469,7 +6472,7 @@
         <v>136</v>
       </c>
       <c r="K165" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L165" s="13"/>
     </row>
@@ -6481,16 +6484,16 @@
         <v>11</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -6499,7 +6502,7 @@
         <v>136</v>
       </c>
       <c r="K166" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L166" s="13"/>
     </row>
@@ -6511,16 +6514,16 @@
         <v>11</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -6529,7 +6532,7 @@
         <v>136</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L167" s="13"/>
     </row>
@@ -6541,16 +6544,16 @@
         <v>11</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -6567,14 +6570,14 @@
         <v>11</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -6583,7 +6586,7 @@
         <v>141</v>
       </c>
       <c r="K169" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L169" s="13"/>
     </row>
@@ -6595,16 +6598,16 @@
         <v>11</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
@@ -6613,7 +6616,7 @@
         <v>141</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L170" s="13"/>
     </row>
@@ -6625,16 +6628,16 @@
         <v>11</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -6643,7 +6646,7 @@
         <v>141</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L171" s="13"/>
     </row>
@@ -6655,16 +6658,16 @@
         <v>11</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
@@ -6673,7 +6676,7 @@
         <v>141</v>
       </c>
       <c r="K172" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L172" s="13"/>
     </row>
@@ -6685,16 +6688,16 @@
         <v>11</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
@@ -6703,7 +6706,7 @@
         <v>141</v>
       </c>
       <c r="K173" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L173" s="13"/>
     </row>
@@ -6715,16 +6718,16 @@
         <v>11</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
@@ -6741,14 +6744,14 @@
         <v>11</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -6757,7 +6760,7 @@
         <v>146</v>
       </c>
       <c r="K175" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L175" s="13"/>
     </row>
@@ -6769,16 +6772,16 @@
         <v>11</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
@@ -6787,7 +6790,7 @@
         <v>146</v>
       </c>
       <c r="K176" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L176" s="13"/>
     </row>
@@ -6799,16 +6802,16 @@
         <v>11</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
@@ -6817,7 +6820,7 @@
         <v>146</v>
       </c>
       <c r="K177" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L177" s="13"/>
     </row>
@@ -6829,16 +6832,16 @@
         <v>11</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
@@ -6847,7 +6850,7 @@
         <v>146</v>
       </c>
       <c r="K178" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L178" s="13"/>
     </row>
@@ -6859,16 +6862,16 @@
         <v>11</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -6877,7 +6880,7 @@
         <v>146</v>
       </c>
       <c r="K179" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L179" s="13"/>
     </row>
@@ -6889,16 +6892,16 @@
         <v>11</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
@@ -6915,14 +6918,14 @@
         <v>11</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -6931,7 +6934,7 @@
         <v>151</v>
       </c>
       <c r="K181" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L181" s="13"/>
     </row>
@@ -6943,16 +6946,16 @@
         <v>11</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -6961,7 +6964,7 @@
         <v>151</v>
       </c>
       <c r="K182" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L182" s="13"/>
     </row>
@@ -6973,16 +6976,16 @@
         <v>11</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -6991,7 +6994,7 @@
         <v>151</v>
       </c>
       <c r="K183" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L183" s="13"/>
     </row>
@@ -7003,16 +7006,16 @@
         <v>11</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -7021,7 +7024,7 @@
         <v>151</v>
       </c>
       <c r="K184" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L184" s="13"/>
     </row>
@@ -7033,16 +7036,16 @@
         <v>11</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -7051,7 +7054,7 @@
         <v>151</v>
       </c>
       <c r="K185" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L185" s="13"/>
     </row>
@@ -7063,16 +7066,16 @@
         <v>11</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -7089,14 +7092,14 @@
         <v>11</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -7105,7 +7108,7 @@
         <v>156</v>
       </c>
       <c r="K187" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L187" s="13"/>
     </row>
@@ -7117,16 +7120,16 @@
         <v>11</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -7135,7 +7138,7 @@
         <v>156</v>
       </c>
       <c r="K188" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L188" s="13"/>
     </row>
@@ -7147,16 +7150,16 @@
         <v>11</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
@@ -7165,7 +7168,7 @@
         <v>156</v>
       </c>
       <c r="K189" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L189" s="13"/>
     </row>
@@ -7177,16 +7180,16 @@
         <v>11</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
@@ -7195,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="K190" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L190" s="13"/>
     </row>
@@ -7207,16 +7210,16 @@
         <v>11</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -7225,7 +7228,7 @@
         <v>156</v>
       </c>
       <c r="K191" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L191" s="13"/>
     </row>
@@ -7237,16 +7240,16 @@
         <v>11</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
@@ -7263,14 +7266,14 @@
         <v>11</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E193" s="12"/>
       <c r="F193" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -7279,7 +7282,7 @@
         <v>161</v>
       </c>
       <c r="K193" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L193" s="13"/>
     </row>
@@ -7291,16 +7294,16 @@
         <v>11</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -7309,7 +7312,7 @@
         <v>161</v>
       </c>
       <c r="K194" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L194" s="13"/>
     </row>
@@ -7321,16 +7324,16 @@
         <v>11</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -7339,7 +7342,7 @@
         <v>161</v>
       </c>
       <c r="K195" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L195" s="13"/>
     </row>
@@ -7351,16 +7354,16 @@
         <v>11</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
@@ -7369,7 +7372,7 @@
         <v>161</v>
       </c>
       <c r="K196" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L196" s="13"/>
     </row>
@@ -7381,16 +7384,16 @@
         <v>11</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
@@ -7399,7 +7402,7 @@
         <v>161</v>
       </c>
       <c r="K197" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L197" s="13"/>
     </row>
@@ -7411,16 +7414,16 @@
         <v>11</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
@@ -7437,14 +7440,14 @@
         <v>11</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -7453,7 +7456,7 @@
         <v>166</v>
       </c>
       <c r="K199" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L199" s="13"/>
     </row>
@@ -7465,16 +7468,16 @@
         <v>11</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
@@ -7483,7 +7486,7 @@
         <v>166</v>
       </c>
       <c r="K200" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L200" s="13"/>
     </row>
@@ -7495,16 +7498,16 @@
         <v>11</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -7513,7 +7516,7 @@
         <v>166</v>
       </c>
       <c r="K201" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L201" s="13"/>
     </row>
@@ -7525,16 +7528,16 @@
         <v>11</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
@@ -7543,7 +7546,7 @@
         <v>166</v>
       </c>
       <c r="K202" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L202" s="13"/>
     </row>
@@ -7555,16 +7558,16 @@
         <v>11</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
@@ -7573,7 +7576,7 @@
         <v>166</v>
       </c>
       <c r="K203" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L203" s="13"/>
     </row>
@@ -7585,16 +7588,16 @@
         <v>11</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
@@ -7611,14 +7614,14 @@
         <v>11</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
@@ -7627,7 +7630,7 @@
         <v>171</v>
       </c>
       <c r="K205" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L205" s="13"/>
     </row>
@@ -7639,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
@@ -7657,7 +7660,7 @@
         <v>171</v>
       </c>
       <c r="K206" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L206" s="13"/>
     </row>
@@ -7669,16 +7672,16 @@
         <v>11</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
@@ -7687,7 +7690,7 @@
         <v>171</v>
       </c>
       <c r="K207" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L207" s="13"/>
     </row>
@@ -7699,16 +7702,16 @@
         <v>11</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
@@ -7717,7 +7720,7 @@
         <v>171</v>
       </c>
       <c r="K208" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L208" s="13"/>
     </row>
@@ -7729,16 +7732,16 @@
         <v>11</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -7747,7 +7750,7 @@
         <v>171</v>
       </c>
       <c r="K209" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L209" s="13"/>
     </row>
@@ -7759,16 +7762,16 @@
         <v>11</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G210" s="12"/>
       <c r="H210" s="12"/>
@@ -7785,14 +7788,14 @@
         <v>11</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
@@ -7801,7 +7804,7 @@
         <v>176</v>
       </c>
       <c r="K211" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L211" s="13"/>
     </row>
@@ -7813,16 +7816,16 @@
         <v>11</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
@@ -7831,7 +7834,7 @@
         <v>176</v>
       </c>
       <c r="K212" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L212" s="13"/>
     </row>
@@ -7843,16 +7846,16 @@
         <v>11</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
@@ -7861,7 +7864,7 @@
         <v>176</v>
       </c>
       <c r="K213" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L213" s="13"/>
     </row>
@@ -7873,16 +7876,16 @@
         <v>11</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
@@ -7891,7 +7894,7 @@
         <v>176</v>
       </c>
       <c r="K214" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L214" s="13"/>
     </row>
@@ -7903,16 +7906,16 @@
         <v>11</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
@@ -7921,7 +7924,7 @@
         <v>176</v>
       </c>
       <c r="K215" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L215" s="13"/>
     </row>
@@ -7933,16 +7936,16 @@
         <v>11</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G216" s="12"/>
       <c r="H216" s="12"/>
@@ -7959,14 +7962,14 @@
         <v>11</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -7975,7 +7978,7 @@
         <v>181</v>
       </c>
       <c r="K217" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L217" s="13"/>
     </row>
@@ -7987,16 +7990,16 @@
         <v>11</v>
       </c>
       <c r="C218" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F218" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F218" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
@@ -8005,7 +8008,7 @@
         <v>181</v>
       </c>
       <c r="K218" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L218" s="13"/>
     </row>
@@ -8017,16 +8020,16 @@
         <v>11</v>
       </c>
       <c r="C219" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F219" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E219" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F219" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="12"/>
@@ -8035,7 +8038,7 @@
         <v>181</v>
       </c>
       <c r="K219" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L219" s="13"/>
     </row>
@@ -8047,16 +8050,16 @@
         <v>11</v>
       </c>
       <c r="C220" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F220" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E220" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F220" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="12"/>
@@ -8065,7 +8068,7 @@
         <v>181</v>
       </c>
       <c r="K220" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L220" s="13"/>
     </row>
@@ -8077,16 +8080,16 @@
         <v>11</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
@@ -8095,7 +8098,7 @@
         <v>181</v>
       </c>
       <c r="K221" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L221" s="13"/>
     </row>
@@ -8107,16 +8110,16 @@
         <v>11</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G222" s="12"/>
       <c r="H222" s="12"/>
@@ -8133,14 +8136,14 @@
         <v>11</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E223" s="12"/>
       <c r="F223" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G223" s="12"/>
       <c r="H223" s="12"/>
@@ -8149,7 +8152,7 @@
         <v>186</v>
       </c>
       <c r="K223" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L223" s="13"/>
     </row>
@@ -8161,16 +8164,16 @@
         <v>11</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G224" s="12"/>
       <c r="H224" s="12"/>
@@ -8179,7 +8182,7 @@
         <v>186</v>
       </c>
       <c r="K224" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L224" s="13"/>
     </row>
@@ -8191,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G225" s="12"/>
       <c r="H225" s="12"/>
@@ -8209,7 +8212,7 @@
         <v>186</v>
       </c>
       <c r="K225" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L225" s="13"/>
     </row>
@@ -8221,16 +8224,16 @@
         <v>11</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G226" s="12"/>
       <c r="H226" s="12"/>
@@ -8239,7 +8242,7 @@
         <v>186</v>
       </c>
       <c r="K226" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L226" s="13"/>
     </row>
@@ -8251,16 +8254,16 @@
         <v>11</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G227" s="12"/>
       <c r="H227" s="12"/>
@@ -8269,7 +8272,7 @@
         <v>186</v>
       </c>
       <c r="K227" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L227" s="13"/>
     </row>
@@ -8281,16 +8284,16 @@
         <v>11</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G228" s="12"/>
       <c r="H228" s="12"/>
@@ -8307,14 +8310,14 @@
         <v>11</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G229" s="12"/>
       <c r="H229" s="12"/>
@@ -8323,7 +8326,7 @@
         <v>191</v>
       </c>
       <c r="K229" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L229" s="13"/>
     </row>
@@ -8335,16 +8338,16 @@
         <v>11</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G230" s="12"/>
       <c r="H230" s="12"/>
@@ -8353,7 +8356,7 @@
         <v>191</v>
       </c>
       <c r="K230" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L230" s="13"/>
     </row>
@@ -8365,16 +8368,16 @@
         <v>11</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G231" s="12"/>
       <c r="H231" s="12"/>
@@ -8383,7 +8386,7 @@
         <v>191</v>
       </c>
       <c r="K231" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L231" s="13"/>
     </row>
@@ -8395,16 +8398,16 @@
         <v>11</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
@@ -8413,7 +8416,7 @@
         <v>191</v>
       </c>
       <c r="K232" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L232" s="13"/>
     </row>
@@ -8425,16 +8428,16 @@
         <v>11</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G233" s="12"/>
       <c r="H233" s="12"/>
@@ -8443,7 +8446,7 @@
         <v>191</v>
       </c>
       <c r="K233" s="12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L233" s="13"/>
     </row>
@@ -8455,16 +8458,16 @@
         <v>11</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G234" s="12"/>
       <c r="H234" s="12"/>
@@ -8481,16 +8484,16 @@
         <v>11</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G235" s="12"/>
       <c r="H235" s="12"/>
@@ -8507,16 +8510,16 @@
         <v>11</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G236" s="12"/>
       <c r="H236" s="12"/>
@@ -8533,16 +8536,16 @@
         <v>11</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G237" s="12"/>
       <c r="H237" s="12"/>
@@ -8559,16 +8562,16 @@
         <v>11</v>
       </c>
       <c r="C238" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D238" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D238" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="E238" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G238" s="12"/>
       <c r="H238" s="12"/>
@@ -8585,16 +8588,16 @@
         <v>11</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G239" s="12"/>
       <c r="H239" s="12"/>
@@ -8611,16 +8614,16 @@
         <v>11</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G240" s="12"/>
       <c r="H240" s="12"/>
@@ -8637,16 +8640,16 @@
         <v>11</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G241" s="12"/>
       <c r="H241" s="12"/>
@@ -8663,16 +8666,16 @@
         <v>11</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G242" s="12"/>
       <c r="H242" s="12"/>
@@ -8689,21 +8692,21 @@
         <v>11</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G243" s="12"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="J243" s="12"/>
       <c r="K243" s="12"/>
@@ -8717,16 +8720,16 @@
         <v>11</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G244" s="12"/>
       <c r="H244" s="12"/>
@@ -8743,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G245" s="12"/>
       <c r="H245" s="12"/>
@@ -8769,16 +8772,16 @@
         <v>11</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G246" s="12"/>
       <c r="H246" s="12"/>
@@ -8795,16 +8798,16 @@
         <v>11</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G247" s="12"/>
       <c r="H247" s="12"/>
@@ -8821,16 +8824,16 @@
         <v>11</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12"/>
@@ -8847,16 +8850,16 @@
         <v>11</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G249" s="12"/>
       <c r="H249" s="12"/>
@@ -8873,16 +8876,16 @@
         <v>11</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G250" s="12"/>
       <c r="H250" s="12"/>
@@ -8899,16 +8902,16 @@
         <v>11</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G251" s="12"/>
       <c r="H251" s="12"/>
@@ -8925,16 +8928,16 @@
         <v>11</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G252" s="12"/>
       <c r="H252" s="12"/>
@@ -8951,16 +8954,16 @@
         <v>11</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G253" s="12"/>
       <c r="H253" s="12"/>
@@ -8977,16 +8980,16 @@
         <v>11</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G254" s="12"/>
       <c r="H254" s="12"/>
@@ -9003,16 +9006,16 @@
         <v>11</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G255" s="12"/>
       <c r="H255" s="12"/>
@@ -9029,16 +9032,16 @@
         <v>11</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G256" s="12"/>
       <c r="H256" s="12"/>
@@ -9055,16 +9058,16 @@
         <v>11</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="G257" s="12"/>
       <c r="H257" s="12"/>
@@ -9081,16 +9084,16 @@
         <v>11</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G258" s="12"/>
       <c r="H258" s="12"/>
@@ -9107,16 +9110,16 @@
         <v>11</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G259" s="12"/>
       <c r="H259" s="12"/>
@@ -9133,16 +9136,16 @@
         <v>11</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G260" s="12"/>
       <c r="H260" s="12"/>
@@ -9159,16 +9162,16 @@
         <v>11</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="G261" s="12"/>
       <c r="H261" s="12"/>
@@ -9185,16 +9188,16 @@
         <v>11</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="G262" s="12"/>
       <c r="H262" s="12"/>
@@ -9211,16 +9214,16 @@
         <v>11</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="G263" s="12"/>
       <c r="H263" s="12"/>

--- a/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
+++ b/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\heimathafen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D731E-9E6E-4D0A-9C07-636B6202A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7DF5F9-4555-4CC6-BCF7-4D8FEF5B5051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heimathafen" sheetId="2" r:id="rId1"/>
@@ -377,9 +377,6 @@
 Erkennung von Ausreißern (z.B. mithilfe von Benchmarking), Maßnahmen zur Erkennung von unplausiblen Daten z.B. numerische Daten werden verlangt und Text wurde erfasst.</t>
   </si>
   <si>
-    <t>Datenquelle</t>
-  </si>
-  <si>
     <t>Welche Quellen werden genutzt?
 Angabe von Quellen zur Erhebung der KPIs, zum Beispiel Geschäftsberichte von Unternehmen, nichtfinanzielle Erklärungen etc.</t>
   </si>
@@ -440,10 +437,6 @@
 Angaben zur Datenerhebung der o.g. Kennzahlen (z.B. Fragebogen)</t>
   </si>
   <si>
-    <t>Welche Quellen werden genutzt?
-Angabe von Quellen zur Erhebung der KPIs, zum Beispiel Umweltbundesamt)</t>
-  </si>
-  <si>
     <t>SFDR</t>
   </si>
   <si>
@@ -1108,6 +1101,13 @@
   <si>
     <t>Werden Nachhaltigkeitsrisiken bezogen auf den Bereich Soziales in der Methodik abgebildet?
 Nachhaltigkeitsrisiken können einen wesentlichen negativen Einfluss auf die Performance eines Unternehmens haben.</t>
+  </si>
+  <si>
+    <t>Datenquellen</t>
+  </si>
+  <si>
+    <t>Welche Quellen werden genutzt?
+Angabe von Quellen zur Erhebung der KPIs, zum Beispiel Umweltbundesamt.</t>
   </si>
 </sst>
 </file>
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA20BB-8F3E-44CB-A7F2-F957706EDEE9}">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="F263" sqref="F263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -1834,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>12</v>
@@ -1843,7 +1843,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1860,13 +1860,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>16</v>
@@ -1886,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -1895,7 +1895,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1921,7 +1921,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1947,7 +1947,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1973,7 +1973,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1993,13 +1993,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2019,13 +2019,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -2045,13 +2045,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2077,7 +2077,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2097,13 +2097,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2123,13 +2123,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -2155,7 +2155,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2207,7 +2207,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -2227,13 +2227,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -2259,7 +2259,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -2285,7 +2285,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -2311,7 +2311,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -2337,7 +2337,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -2363,7 +2363,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -2415,7 +2415,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2445,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -2475,7 +2475,7 @@
         <v>59</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2531,7 +2531,7 @@
         <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2561,7 +2561,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2591,7 +2591,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2621,7 +2621,7 @@
         <v>69</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2647,7 +2647,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2673,7 +2673,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2696,7 +2696,7 @@
         <v>76</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>31</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -2753,7 +2753,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2783,7 +2783,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -2813,7 +2813,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -2843,7 +2843,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -2873,7 +2873,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -2923,11 +2923,11 @@
         <v>75</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2957,7 +2957,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3069,7 +3069,7 @@
         <v>96</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3099,7 +3099,7 @@
         <v>97</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -3129,7 +3129,7 @@
         <v>98</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -3153,13 +3153,13 @@
         <v>91</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="F50" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -3180,13 +3180,13 @@
         <v>74</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>31</v>
@@ -3206,14 +3206,14 @@
         <v>74</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3234,16 +3234,16 @@
         <v>74</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3264,16 +3264,16 @@
         <v>74</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3294,16 +3294,16 @@
         <v>74</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -3324,16 +3324,16 @@
         <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -3354,13 +3354,13 @@
         <v>74</v>
       </c>
       <c r="C57" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>31</v>
@@ -3380,14 +3380,14 @@
         <v>74</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -3408,7 +3408,7 @@
         <v>74</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>95</v>
@@ -3417,7 +3417,7 @@
         <v>96</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3438,16 +3438,16 @@
         <v>74</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -3468,16 +3468,16 @@
         <v>74</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -3498,16 +3498,16 @@
         <v>74</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -3528,13 +3528,13 @@
         <v>74</v>
       </c>
       <c r="C63" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>31</v>
@@ -3554,14 +3554,14 @@
         <v>74</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -3582,16 +3582,16 @@
         <v>74</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -3612,16 +3612,16 @@
         <v>74</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -3642,16 +3642,16 @@
         <v>74</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -3672,16 +3672,16 @@
         <v>74</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -3702,13 +3702,13 @@
         <v>74</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>31</v>
@@ -3728,14 +3728,14 @@
         <v>74</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -3756,16 +3756,16 @@
         <v>74</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -3786,16 +3786,16 @@
         <v>74</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -3816,16 +3816,16 @@
         <v>74</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>64</v>
       </c>
@@ -3846,16 +3846,16 @@
         <v>74</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>116</v>
+        <v>325</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>326</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -3876,16 +3876,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>119</v>
-      </c>
       <c r="F75" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -3902,13 +3902,13 @@
         <v>74</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>31</v>
@@ -3928,14 +3928,14 @@
         <v>74</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -3956,16 +3956,16 @@
         <v>74</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -3986,16 +3986,16 @@
         <v>74</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -4016,16 +4016,16 @@
         <v>74</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -4046,13 +4046,13 @@
         <v>74</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>31</v>
@@ -4072,14 +4072,14 @@
         <v>74</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -4100,16 +4100,16 @@
         <v>74</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -4130,16 +4130,16 @@
         <v>74</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -4160,16 +4160,16 @@
         <v>74</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -4187,16 +4187,16 @@
         <v>74</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>31</v>
@@ -4213,7 +4213,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>75</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -4241,19 +4241,19 @@
         <v>75</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -4271,19 +4271,19 @@
         <v>76</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -4301,19 +4301,19 @@
         <v>77</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -4327,19 +4327,19 @@
         <v>78</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -4353,7 +4353,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>75</v>
@@ -4362,10 +4362,10 @@
         <v>85</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -4379,7 +4379,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>75</v>
@@ -4405,17 +4405,17 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -4433,19 +4433,19 @@
         <v>81</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -4463,16 +4463,16 @@
         <v>82</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>31</v>
@@ -4489,17 +4489,17 @@
         <v>82.1</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -4517,10 +4517,10 @@
         <v>83</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>95</v>
@@ -4529,7 +4529,7 @@
         <v>96</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -4547,19 +4547,19 @@
         <v>84</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -4577,19 +4577,19 @@
         <v>85</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -4607,19 +4607,19 @@
         <v>86</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C101" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="F101" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
@@ -4637,16 +4637,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>31</v>
@@ -4663,17 +4663,17 @@
         <v>87.1</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -4691,10 +4691,10 @@
         <v>88</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>95</v>
@@ -4703,7 +4703,7 @@
         <v>96</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -4721,19 +4721,19 @@
         <v>89</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -4751,19 +4751,19 @@
         <v>90</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -4781,19 +4781,19 @@
         <v>91</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C107" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="F107" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -4811,19 +4811,19 @@
         <v>92</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -4837,16 +4837,16 @@
         <v>93</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>31</v>
@@ -4863,17 +4863,17 @@
         <v>93.1</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -4891,19 +4891,19 @@
         <v>94</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -4921,19 +4921,19 @@
         <v>95</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -4951,19 +4951,19 @@
         <v>96</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -4981,16 +4981,16 @@
         <v>97</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>31</v>
@@ -5007,17 +5007,17 @@
         <v>97.1</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -5035,19 +5035,19 @@
         <v>98</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -5065,19 +5065,19 @@
         <v>99</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -5095,16 +5095,16 @@
         <v>100</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="E118" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>31</v>
@@ -5121,17 +5121,17 @@
         <v>100.1</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -5149,19 +5149,19 @@
         <v>101</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -5179,19 +5179,19 @@
         <v>102</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -5209,19 +5209,19 @@
         <v>103</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
@@ -5239,16 +5239,16 @@
         <v>104</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>31</v>
@@ -5265,17 +5265,17 @@
         <v>104.1</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
@@ -5293,19 +5293,19 @@
         <v>105</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -5323,19 +5323,19 @@
         <v>106</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -5353,16 +5353,16 @@
         <v>107</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>31</v>
@@ -5379,17 +5379,17 @@
         <v>107.1</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -5407,19 +5407,19 @@
         <v>108</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -5437,19 +5437,19 @@
         <v>109</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -5467,19 +5467,19 @@
         <v>110</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
@@ -5500,13 +5500,13 @@
         <v>11</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>31</v>
@@ -5526,14 +5526,14 @@
         <v>11</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -5554,16 +5554,16 @@
         <v>11</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -5584,16 +5584,16 @@
         <v>11</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
@@ -5614,16 +5614,16 @@
         <v>11</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
@@ -5644,16 +5644,16 @@
         <v>11</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
@@ -5674,13 +5674,13 @@
         <v>11</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>31</v>
@@ -5700,14 +5700,14 @@
         <v>11</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -5728,16 +5728,16 @@
         <v>11</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
@@ -5758,16 +5758,16 @@
         <v>11</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
@@ -5788,16 +5788,16 @@
         <v>11</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -5818,16 +5818,16 @@
         <v>11</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
@@ -5848,13 +5848,13 @@
         <v>11</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>31</v>
@@ -5874,14 +5874,14 @@
         <v>11</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
@@ -5902,16 +5902,16 @@
         <v>11</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
@@ -5932,16 +5932,16 @@
         <v>11</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -5962,16 +5962,16 @@
         <v>11</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -5992,16 +5992,16 @@
         <v>11</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -6022,13 +6022,13 @@
         <v>11</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>31</v>
@@ -6048,14 +6048,14 @@
         <v>11</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
@@ -6076,16 +6076,16 @@
         <v>11</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -6106,16 +6106,16 @@
         <v>11</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -6136,16 +6136,16 @@
         <v>11</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -6166,16 +6166,16 @@
         <v>11</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -6196,13 +6196,13 @@
         <v>11</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>31</v>
@@ -6222,14 +6222,14 @@
         <v>11</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
@@ -6250,16 +6250,16 @@
         <v>11</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -6280,16 +6280,16 @@
         <v>11</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -6310,16 +6310,16 @@
         <v>11</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -6340,16 +6340,16 @@
         <v>11</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
@@ -6370,13 +6370,13 @@
         <v>11</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>31</v>
@@ -6396,14 +6396,14 @@
         <v>11</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -6424,16 +6424,16 @@
         <v>11</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -6454,16 +6454,16 @@
         <v>11</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
@@ -6484,16 +6484,16 @@
         <v>11</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -6514,16 +6514,16 @@
         <v>11</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -6544,13 +6544,13 @@
         <v>11</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>31</v>
@@ -6570,14 +6570,14 @@
         <v>11</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -6598,16 +6598,16 @@
         <v>11</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D170" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
@@ -6628,16 +6628,16 @@
         <v>11</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -6658,16 +6658,16 @@
         <v>11</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
@@ -6688,16 +6688,16 @@
         <v>11</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
@@ -6718,13 +6718,13 @@
         <v>11</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>31</v>
@@ -6744,14 +6744,14 @@
         <v>11</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -6772,16 +6772,16 @@
         <v>11</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
@@ -6802,16 +6802,16 @@
         <v>11</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
@@ -6832,16 +6832,16 @@
         <v>11</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
@@ -6862,16 +6862,16 @@
         <v>11</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -6892,13 +6892,13 @@
         <v>11</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>31</v>
@@ -6918,14 +6918,14 @@
         <v>11</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -6946,16 +6946,16 @@
         <v>11</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -6976,16 +6976,16 @@
         <v>11</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -7006,16 +7006,16 @@
         <v>11</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -7036,16 +7036,16 @@
         <v>11</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -7066,13 +7066,13 @@
         <v>11</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>31</v>
@@ -7092,14 +7092,14 @@
         <v>11</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -7120,16 +7120,16 @@
         <v>11</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -7150,16 +7150,16 @@
         <v>11</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
@@ -7180,16 +7180,16 @@
         <v>11</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
@@ -7210,16 +7210,16 @@
         <v>11</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -7240,13 +7240,13 @@
         <v>11</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>31</v>
@@ -7266,14 +7266,14 @@
         <v>11</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E193" s="12"/>
       <c r="F193" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -7294,16 +7294,16 @@
         <v>11</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -7324,16 +7324,16 @@
         <v>11</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -7354,16 +7354,16 @@
         <v>11</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
@@ -7384,16 +7384,16 @@
         <v>11</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
@@ -7414,13 +7414,13 @@
         <v>11</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>31</v>
@@ -7440,14 +7440,14 @@
         <v>11</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -7468,16 +7468,16 @@
         <v>11</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
@@ -7498,16 +7498,16 @@
         <v>11</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -7528,16 +7528,16 @@
         <v>11</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
@@ -7558,16 +7558,16 @@
         <v>11</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
@@ -7588,13 +7588,13 @@
         <v>11</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>31</v>
@@ -7614,14 +7614,14 @@
         <v>11</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D205" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D206" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
@@ -7672,16 +7672,16 @@
         <v>11</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
@@ -7702,16 +7702,16 @@
         <v>11</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
@@ -7732,16 +7732,16 @@
         <v>11</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -7762,13 +7762,13 @@
         <v>11</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>31</v>
@@ -7788,14 +7788,14 @@
         <v>11</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
@@ -7816,16 +7816,16 @@
         <v>11</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D212" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
@@ -7846,16 +7846,16 @@
         <v>11</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
@@ -7876,16 +7876,16 @@
         <v>11</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
@@ -7906,16 +7906,16 @@
         <v>11</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
@@ -7936,13 +7936,13 @@
         <v>11</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>31</v>
@@ -7962,14 +7962,14 @@
         <v>11</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D217" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -7990,16 +7990,16 @@
         <v>11</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
@@ -8020,16 +8020,16 @@
         <v>11</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="12"/>
@@ -8050,16 +8050,16 @@
         <v>11</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="12"/>
@@ -8080,16 +8080,16 @@
         <v>11</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
@@ -8110,13 +8110,13 @@
         <v>11</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>31</v>
@@ -8136,14 +8136,14 @@
         <v>11</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E223" s="12"/>
       <c r="F223" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G223" s="12"/>
       <c r="H223" s="12"/>
@@ -8164,16 +8164,16 @@
         <v>11</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G224" s="12"/>
       <c r="H224" s="12"/>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G225" s="12"/>
       <c r="H225" s="12"/>
@@ -8224,16 +8224,16 @@
         <v>11</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G226" s="12"/>
       <c r="H226" s="12"/>
@@ -8254,16 +8254,16 @@
         <v>11</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G227" s="12"/>
       <c r="H227" s="12"/>
@@ -8284,13 +8284,13 @@
         <v>11</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>31</v>
@@ -8310,14 +8310,14 @@
         <v>11</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G229" s="12"/>
       <c r="H229" s="12"/>
@@ -8338,16 +8338,16 @@
         <v>11</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G230" s="12"/>
       <c r="H230" s="12"/>
@@ -8368,16 +8368,16 @@
         <v>11</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G231" s="12"/>
       <c r="H231" s="12"/>
@@ -8398,16 +8398,16 @@
         <v>11</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
@@ -8428,16 +8428,16 @@
         <v>11</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G233" s="12"/>
       <c r="H233" s="12"/>
@@ -8458,16 +8458,16 @@
         <v>11</v>
       </c>
       <c r="C234" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E234" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D234" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E234" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="F234" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G234" s="12"/>
       <c r="H234" s="12"/>
@@ -8484,16 +8484,16 @@
         <v>11</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G235" s="12"/>
       <c r="H235" s="12"/>
@@ -8510,13 +8510,13 @@
         <v>11</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>31</v>
@@ -8536,13 +8536,13 @@
         <v>11</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F237" s="12" t="s">
         <v>31</v>
@@ -8562,13 +8562,13 @@
         <v>11</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F238" s="12" t="s">
         <v>31</v>
@@ -8588,16 +8588,16 @@
         <v>11</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G239" s="12"/>
       <c r="H239" s="12"/>
@@ -8614,13 +8614,13 @@
         <v>11</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>14</v>
@@ -8640,13 +8640,13 @@
         <v>11</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F241" s="12" t="s">
         <v>31</v>
@@ -8666,16 +8666,16 @@
         <v>11</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G242" s="12"/>
       <c r="H242" s="12"/>
@@ -8692,13 +8692,13 @@
         <v>11</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F243" s="12" t="s">
         <v>31</v>
@@ -8706,7 +8706,7 @@
       <c r="G243" s="12"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J243" s="12"/>
       <c r="K243" s="12"/>
@@ -8720,13 +8720,13 @@
         <v>11</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F244" s="12" t="s">
         <v>31</v>
@@ -8746,13 +8746,13 @@
         <v>11</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F245" s="12" t="s">
         <v>31</v>
@@ -8772,13 +8772,13 @@
         <v>11</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F246" s="12" t="s">
         <v>31</v>
@@ -8798,13 +8798,13 @@
         <v>11</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F247" s="12" t="s">
         <v>14</v>
@@ -8824,16 +8824,16 @@
         <v>11</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D248" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12"/>
@@ -8850,13 +8850,13 @@
         <v>11</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D249" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>31</v>
@@ -8876,13 +8876,13 @@
         <v>11</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F250" s="12" t="s">
         <v>31</v>
@@ -8902,13 +8902,13 @@
         <v>11</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D251" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>31</v>
@@ -8928,13 +8928,13 @@
         <v>11</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>31</v>
@@ -8954,13 +8954,13 @@
         <v>11</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>31</v>
@@ -8980,13 +8980,13 @@
         <v>11</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F254" s="12" t="s">
         <v>14</v>
@@ -9006,13 +9006,13 @@
         <v>11</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D255" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>31</v>
@@ -9032,13 +9032,13 @@
         <v>11</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F256" s="12" t="s">
         <v>31</v>
@@ -9058,16 +9058,16 @@
         <v>11</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D257" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G257" s="12"/>
       <c r="H257" s="12"/>
@@ -9084,13 +9084,13 @@
         <v>11</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D258" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>14</v>
@@ -9110,16 +9110,16 @@
         <v>11</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D259" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F259" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="E259" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="G259" s="12"/>
       <c r="H259" s="12"/>
@@ -9136,13 +9136,13 @@
         <v>11</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F260" s="12" t="s">
         <v>14</v>
@@ -9162,16 +9162,16 @@
         <v>11</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G261" s="12"/>
       <c r="H261" s="12"/>
@@ -9188,16 +9188,16 @@
         <v>11</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G262" s="12"/>
       <c r="H262" s="12"/>
@@ -9214,16 +9214,16 @@
         <v>11</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G263" s="12"/>
       <c r="H263" s="12"/>

--- a/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
+++ b/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\heimathafen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7DF5F9-4555-4CC6-BCF7-4D8FEF5B5051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E030086-7EBF-44EE-9FDD-398209F3809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="328">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1108,6 +1108,9 @@
   <si>
     <t>Welche Quellen werden genutzt?
 Angabe von Quellen zur Erhebung der KPIs, zum Beispiel Umweltbundesamt.</t>
+  </si>
+  <si>
+    <t>Quellen</t>
   </si>
 </sst>
 </file>
@@ -1774,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA20BB-8F3E-44CB-A7F2-F957706EDEE9}">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2867,7 +2870,7 @@
         <v>75</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>86</v>

--- a/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
+++ b/dataland-framework-toolbox/inputs/heimathafen/dataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\heimathafen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E030086-7EBF-44EE-9FDD-398209F3809B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6F880-4C40-455F-A514-6170B299CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>Wie wird die Aktualität der Kontroversen gewährleistet?</t>
   </si>
   <si>
-    <t>Kontroversen um die Quellenerfassung</t>
-  </si>
-  <si>
     <t>Welche Quellen werden zur Erfassung von Kontroversen genutzt?</t>
   </si>
   <si>
@@ -1111,6 +1108,9 @@
   </si>
   <si>
     <t>Quellen</t>
+  </si>
+  <si>
+    <t>Quellen zur Erfassung von Kontroversen</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:L1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1820,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>9</v>
@@ -1837,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>12</v>
@@ -1846,7 +1846,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1863,13 +1863,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>16</v>
@@ -1889,7 +1889,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>17</v>
@@ -1898,7 +1898,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -1924,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1950,7 +1950,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1976,7 +1976,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1996,13 +1996,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -2048,13 +2048,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2080,7 +2080,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -2100,13 +2100,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -2126,13 +2126,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -2158,7 +2158,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -2210,7 +2210,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -2230,13 +2230,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -2262,7 +2262,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -2288,7 +2288,7 @@
         <v>43</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -2314,7 +2314,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -2340,7 +2340,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -2366,7 +2366,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -2418,7 +2418,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2448,7 +2448,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -2478,7 +2478,7 @@
         <v>59</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2534,7 +2534,7 @@
         <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2564,7 +2564,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2594,7 +2594,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2624,7 +2624,7 @@
         <v>69</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2650,7 +2650,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2670,13 +2670,13 @@
         <v>19</v>
       </c>
       <c r="D33" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="F33" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2690,16 +2690,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="E34" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>31</v>
@@ -2716,17 +2716,17 @@
         <v>32.1</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -2744,19 +2744,19 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2774,19 +2774,19 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="F37" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -2804,19 +2804,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="F38" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -2834,19 +2834,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="F39" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -2864,19 +2864,19 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -2894,16 +2894,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>31</v>
@@ -2920,17 +2920,17 @@
         <v>38.1</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2948,19 +2948,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="F43" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2978,16 +2978,16 @@
         <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="E44" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>31</v>
@@ -3004,17 +3004,17 @@
         <v>40.1</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -3032,17 +3032,17 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3060,19 +3060,19 @@
         <v>41</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="F47" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3090,19 +3090,19 @@
         <v>42</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -3120,19 +3120,19 @@
         <v>43</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -3150,19 +3150,19 @@
         <v>44</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -3180,16 +3180,16 @@
         <v>45</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>31</v>
@@ -3206,17 +3206,17 @@
         <v>45.1</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3234,19 +3234,19 @@
         <v>46</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3264,19 +3264,19 @@
         <v>47</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3294,19 +3294,19 @@
         <v>48</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -3324,19 +3324,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -3354,16 +3354,16 @@
         <v>50</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>31</v>
@@ -3380,17 +3380,17 @@
         <v>50.1</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -3408,19 +3408,19 @@
         <v>51</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="F59" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3438,19 +3438,19 @@
         <v>52</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -3468,19 +3468,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -3498,19 +3498,19 @@
         <v>54</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -3528,16 +3528,16 @@
         <v>55</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>31</v>
@@ -3554,17 +3554,17 @@
         <v>55.1</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -3582,19 +3582,19 @@
         <v>56</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -3612,19 +3612,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -3642,19 +3642,19 @@
         <v>58</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -3672,19 +3672,19 @@
         <v>59</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -3702,16 +3702,16 @@
         <v>60</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>31</v>
@@ -3728,17 +3728,17 @@
         <v>60.1</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -3756,19 +3756,19 @@
         <v>61</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -3786,19 +3786,19 @@
         <v>62</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -3816,19 +3816,19 @@
         <v>63</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -3846,19 +3846,19 @@
         <v>64</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D74" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E74" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E74" s="29" t="s">
-        <v>326</v>
-      </c>
       <c r="F74" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -3876,19 +3876,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="E75" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="F75" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -3902,16 +3902,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D76" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>31</v>
@@ -3928,17 +3928,17 @@
         <v>66.099999999999994</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -3956,19 +3956,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -3986,19 +3986,19 @@
         <v>68</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D79" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="F79" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -4016,19 +4016,19 @@
         <v>69</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D80" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="F80" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -4046,16 +4046,16 @@
         <v>70</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D81" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>31</v>
@@ -4072,17 +4072,17 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -4100,19 +4100,19 @@
         <v>71</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -4130,19 +4130,19 @@
         <v>72</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -4160,19 +4160,19 @@
         <v>73</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -4190,16 +4190,16 @@
         <v>74</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="E86" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>31</v>
@@ -4216,17 +4216,17 @@
         <v>74.099999999999994</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -4244,19 +4244,19 @@
         <v>75</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="F88" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -4274,19 +4274,19 @@
         <v>76</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="F89" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -4304,19 +4304,19 @@
         <v>77</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E90" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="F90" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -4330,19 +4330,19 @@
         <v>78</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="F91" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -4356,19 +4356,19 @@
         <v>79</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -4382,16 +4382,16 @@
         <v>80</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E93" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>31</v>
@@ -4408,17 +4408,17 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -4436,19 +4436,19 @@
         <v>81</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -4466,16 +4466,16 @@
         <v>82</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C96" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>31</v>
@@ -4492,17 +4492,17 @@
         <v>82.1</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -4520,19 +4520,19 @@
         <v>83</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E98" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="F98" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -4550,19 +4550,19 @@
         <v>84</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -4580,19 +4580,19 @@
         <v>85</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -4610,19 +4610,19 @@
         <v>86</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
@@ -4640,16 +4640,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>31</v>
@@ -4666,17 +4666,17 @@
         <v>87.1</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -4694,19 +4694,19 @@
         <v>88</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D104" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="F104" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -4724,19 +4724,19 @@
         <v>89</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -4754,19 +4754,19 @@
         <v>90</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -4784,19 +4784,19 @@
         <v>91</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -4814,19 +4814,19 @@
         <v>92</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E108" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="F108" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -4840,16 +4840,16 @@
         <v>93</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D109" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>31</v>
@@ -4866,17 +4866,17 @@
         <v>93.1</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -4894,19 +4894,19 @@
         <v>94</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -4924,19 +4924,19 @@
         <v>95</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -4954,19 +4954,19 @@
         <v>96</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D113" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="F113" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -4984,16 +4984,16 @@
         <v>97</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D114" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>31</v>
@@ -5010,17 +5010,17 @@
         <v>97.1</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>289</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -5038,19 +5038,19 @@
         <v>98</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -5068,19 +5068,19 @@
         <v>99</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D117" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E117" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E117" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="F117" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -5098,16 +5098,16 @@
         <v>100</v>
       </c>
       <c r="B118" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="D118" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="E118" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>31</v>
@@ -5124,17 +5124,17 @@
         <v>100.1</v>
       </c>
       <c r="B119" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -5152,19 +5152,19 @@
         <v>101</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D120" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E120" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E120" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="F120" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -5182,19 +5182,19 @@
         <v>102</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D121" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E121" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E121" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="F121" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -5212,19 +5212,19 @@
         <v>103</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D122" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
@@ -5242,16 +5242,16 @@
         <v>104</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D123" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>31</v>
@@ -5268,17 +5268,17 @@
         <v>104.1</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
@@ -5296,19 +5296,19 @@
         <v>105</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D125" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E125" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E125" s="12" t="s">
-        <v>169</v>
-      </c>
       <c r="F125" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -5326,19 +5326,19 @@
         <v>106</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -5356,16 +5356,16 @@
         <v>107</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D127" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>31</v>
@@ -5382,17 +5382,17 @@
         <v>107.1</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -5410,19 +5410,19 @@
         <v>108</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E129" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E129" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="F129" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -5440,19 +5440,19 @@
         <v>109</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -5470,19 +5470,19 @@
         <v>110</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D131" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E131" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="F131" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
@@ -5503,13 +5503,13 @@
         <v>11</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D132" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E132" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>31</v>
@@ -5529,14 +5529,14 @@
         <v>11</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -5557,16 +5557,16 @@
         <v>11</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -5587,16 +5587,16 @@
         <v>11</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
@@ -5617,16 +5617,16 @@
         <v>11</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
@@ -5647,16 +5647,16 @@
         <v>11</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
@@ -5677,13 +5677,13 @@
         <v>11</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D138" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E138" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>31</v>
@@ -5703,14 +5703,14 @@
         <v>11</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -5731,16 +5731,16 @@
         <v>11</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
@@ -5761,16 +5761,16 @@
         <v>11</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
@@ -5791,16 +5791,16 @@
         <v>11</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -5821,16 +5821,16 @@
         <v>11</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
@@ -5851,13 +5851,13 @@
         <v>11</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D144" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E144" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="F144" s="12" t="s">
         <v>31</v>
@@ -5877,14 +5877,14 @@
         <v>11</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
@@ -5905,16 +5905,16 @@
         <v>11</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
@@ -5935,16 +5935,16 @@
         <v>11</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -5965,16 +5965,16 @@
         <v>11</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D148" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -5995,16 +5995,16 @@
         <v>11</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -6025,13 +6025,13 @@
         <v>11</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D150" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E150" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>31</v>
@@ -6051,14 +6051,14 @@
         <v>11</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
@@ -6079,16 +6079,16 @@
         <v>11</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -6109,16 +6109,16 @@
         <v>11</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D153" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -6139,16 +6139,16 @@
         <v>11</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -6169,16 +6169,16 @@
         <v>11</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -6199,13 +6199,13 @@
         <v>11</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D156" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E156" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>31</v>
@@ -6225,14 +6225,14 @@
         <v>11</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
@@ -6253,16 +6253,16 @@
         <v>11</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -6283,16 +6283,16 @@
         <v>11</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -6313,16 +6313,16 @@
         <v>11</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -6343,16 +6343,16 @@
         <v>11</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
@@ -6373,13 +6373,13 @@
         <v>11</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D162" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E162" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>31</v>
@@ -6399,14 +6399,14 @@
         <v>11</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -6427,16 +6427,16 @@
         <v>11</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -6457,16 +6457,16 @@
         <v>11</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
@@ -6487,16 +6487,16 @@
         <v>11</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -6517,16 +6517,16 @@
         <v>11</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -6547,13 +6547,13 @@
         <v>11</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D168" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E168" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>31</v>
@@ -6573,14 +6573,14 @@
         <v>11</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -6601,16 +6601,16 @@
         <v>11</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
@@ -6631,16 +6631,16 @@
         <v>11</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -6661,16 +6661,16 @@
         <v>11</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
@@ -6691,16 +6691,16 @@
         <v>11</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
@@ -6721,13 +6721,13 @@
         <v>11</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D174" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E174" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="F174" s="12" t="s">
         <v>31</v>
@@ -6747,14 +6747,14 @@
         <v>11</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -6775,16 +6775,16 @@
         <v>11</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
@@ -6805,16 +6805,16 @@
         <v>11</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
@@ -6835,16 +6835,16 @@
         <v>11</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
@@ -6865,16 +6865,16 @@
         <v>11</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -6895,13 +6895,13 @@
         <v>11</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D180" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E180" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>31</v>
@@ -6921,14 +6921,14 @@
         <v>11</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E181" s="12"/>
       <c r="F181" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -6949,16 +6949,16 @@
         <v>11</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -6979,16 +6979,16 @@
         <v>11</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -7009,16 +7009,16 @@
         <v>11</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D184" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -7039,16 +7039,16 @@
         <v>11</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -7069,13 +7069,13 @@
         <v>11</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D186" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E186" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="E186" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>31</v>
@@ -7095,14 +7095,14 @@
         <v>11</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E187" s="12"/>
       <c r="F187" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -7123,16 +7123,16 @@
         <v>11</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -7153,16 +7153,16 @@
         <v>11</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
@@ -7183,16 +7183,16 @@
         <v>11</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
@@ -7213,16 +7213,16 @@
         <v>11</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -7243,13 +7243,13 @@
         <v>11</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D192" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E192" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>31</v>
@@ -7269,14 +7269,14 @@
         <v>11</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E193" s="12"/>
       <c r="F193" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -7297,16 +7297,16 @@
         <v>11</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -7327,16 +7327,16 @@
         <v>11</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -7357,16 +7357,16 @@
         <v>11</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
@@ -7387,16 +7387,16 @@
         <v>11</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
@@ -7417,13 +7417,13 @@
         <v>11</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D198" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E198" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="E198" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>31</v>
@@ -7443,14 +7443,14 @@
         <v>11</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E199" s="12"/>
       <c r="F199" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -7471,16 +7471,16 @@
         <v>11</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
@@ -7501,16 +7501,16 @@
         <v>11</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D201" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -7531,16 +7531,16 @@
         <v>11</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D202" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
@@ -7561,16 +7561,16 @@
         <v>11</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
@@ -7591,13 +7591,13 @@
         <v>11</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D204" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E204" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="E204" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>31</v>
@@ -7617,14 +7617,14 @@
         <v>11</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D205" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
@@ -7645,16 +7645,16 @@
         <v>11</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
@@ -7675,16 +7675,16 @@
         <v>11</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
@@ -7705,16 +7705,16 @@
         <v>11</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D208" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
@@ -7735,16 +7735,16 @@
         <v>11</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -7765,13 +7765,13 @@
         <v>11</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D210" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E210" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="E210" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>31</v>
@@ -7791,14 +7791,14 @@
         <v>11</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
@@ -7819,16 +7819,16 @@
         <v>11</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
@@ -7849,16 +7849,16 @@
         <v>11</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
@@ -7879,16 +7879,16 @@
         <v>11</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
@@ -7909,16 +7909,16 @@
         <v>11</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
@@ -7939,13 +7939,13 @@
         <v>11</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D216" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E216" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="E216" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>31</v>
@@ -7965,14 +7965,14 @@
         <v>11</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D217" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -7993,16 +7993,16 @@
         <v>11</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
@@ -8023,16 +8023,16 @@
         <v>11</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G219" s="12"/>
       <c r="H219" s="12"/>
@@ -8053,16 +8053,16 @@
         <v>11</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G220" s="12"/>
       <c r="H220" s="12"/>
@@ -8083,16 +8083,16 @@
         <v>11</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
@@ -8113,13 +8113,13 @@
         <v>11</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D222" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E222" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>31</v>
@@ -8139,14 +8139,14 @@
         <v>11</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E223" s="12"/>
       <c r="F223" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G223" s="12"/>
       <c r="H223" s="12"/>
@@ -8167,16 +8167,16 @@
         <v>11</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G224" s="12"/>
       <c r="H224" s="12"/>
@@ -8197,16 +8197,16 @@
         <v>11</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G225" s="12"/>
       <c r="H225" s="12"/>
@@ -8227,16 +8227,16 @@
         <v>11</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G226" s="12"/>
       <c r="H226" s="12"/>
@@ -8257,16 +8257,16 @@
         <v>11</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G227" s="12"/>
       <c r="H227" s="12"/>
@@ -8287,13 +8287,13 @@
         <v>11</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D228" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E228" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="E228" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>31</v>
@@ -8313,14 +8313,14 @@
         <v>11</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E229" s="12"/>
       <c r="F229" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G229" s="12"/>
       <c r="H229" s="12"/>
@@ -8341,16 +8341,16 @@
         <v>11</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G230" s="12"/>
       <c r="H230" s="12"/>
@@ -8371,16 +8371,16 @@
         <v>11</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G231" s="12"/>
       <c r="H231" s="12"/>
@@ -8401,16 +8401,16 @@
         <v>11</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G232" s="12"/>
       <c r="H232" s="12"/>
@@ -8431,16 +8431,16 @@
         <v>11</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G233" s="12"/>
       <c r="H233" s="12"/>
@@ -8461,16 +8461,16 @@
         <v>11</v>
       </c>
       <c r="C234" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D234" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D234" s="11" t="s">
+      <c r="E234" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E234" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="F234" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G234" s="12"/>
       <c r="H234" s="12"/>
@@ -8487,16 +8487,16 @@
         <v>11</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D235" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E235" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E235" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="F235" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G235" s="12"/>
       <c r="H235" s="12"/>
@@ -8513,13 +8513,13 @@
         <v>11</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D236" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E236" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="E236" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>31</v>
@@ -8539,13 +8539,13 @@
         <v>11</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D237" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E237" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="E237" s="12" t="s">
-        <v>227</v>
       </c>
       <c r="F237" s="12" t="s">
         <v>31</v>
@@ -8565,13 +8565,13 @@
         <v>11</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D238" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E238" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="F238" s="12" t="s">
         <v>31</v>
@@ -8591,16 +8591,16 @@
         <v>11</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D239" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E239" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E239" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="F239" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G239" s="12"/>
       <c r="H239" s="12"/>
@@ -8617,13 +8617,13 @@
         <v>11</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D240" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E240" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="E240" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>14</v>
@@ -8643,13 +8643,13 @@
         <v>11</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D241" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E241" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="E241" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="F241" s="12" t="s">
         <v>31</v>
@@ -8669,16 +8669,16 @@
         <v>11</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D242" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E242" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E242" s="12" t="s">
-        <v>237</v>
-      </c>
       <c r="F242" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G242" s="12"/>
       <c r="H242" s="12"/>
@@ -8695,13 +8695,13 @@
         <v>11</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D243" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E243" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="E243" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="F243" s="12" t="s">
         <v>31</v>
@@ -8709,7 +8709,7 @@
       <c r="G243" s="12"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J243" s="12"/>
       <c r="K243" s="12"/>
@@ -8723,13 +8723,13 @@
         <v>11</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D244" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E244" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="E244" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="F244" s="12" t="s">
         <v>31</v>
@@ -8749,13 +8749,13 @@
         <v>11</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D245" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E245" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="E245" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="F245" s="12" t="s">
         <v>31</v>
@@ -8775,13 +8775,13 @@
         <v>11</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D246" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E246" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="E246" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="F246" s="12" t="s">
         <v>31</v>
@@ -8801,13 +8801,13 @@
         <v>11</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D247" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E247" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="E247" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="F247" s="12" t="s">
         <v>14</v>
@@ -8827,16 +8827,16 @@
         <v>11</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D248" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E248" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E248" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="F248" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G248" s="12"/>
       <c r="H248" s="12"/>
@@ -8853,13 +8853,13 @@
         <v>11</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D249" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E249" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="E249" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>31</v>
@@ -8879,13 +8879,13 @@
         <v>11</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D250" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E250" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="E250" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="F250" s="12" t="s">
         <v>31</v>
@@ -8905,13 +8905,13 @@
         <v>11</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D251" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E251" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="E251" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>31</v>
@@ -8931,13 +8931,13 @@
         <v>11</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D252" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E252" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="E252" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>31</v>
@@ -8957,13 +8957,13 @@
         <v>11</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D253" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E253" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="E253" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>31</v>
@@ -8983,13 +8983,13 @@
         <v>11</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D254" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E254" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="E254" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="F254" s="12" t="s">
         <v>14</v>
@@ -9009,13 +9009,13 @@
         <v>11</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D255" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E255" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="E255" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>31</v>
@@ -9035,13 +9035,13 @@
         <v>11</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D256" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F256" s="12" t="s">
         <v>31</v>
@@ -9061,16 +9061,16 @@
         <v>11</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D257" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E257" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E257" s="12" t="s">
-        <v>267</v>
-      </c>
       <c r="F257" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G257" s="12"/>
       <c r="H257" s="12"/>
@@ -9087,13 +9087,13 @@
         <v>11</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D258" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E258" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="E258" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>14</v>
@@ -9113,16 +9113,16 @@
         <v>11</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D259" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E259" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E259" s="12" t="s">
+      <c r="F259" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>272</v>
       </c>
       <c r="G259" s="12"/>
       <c r="H259" s="12"/>
@@ -9139,13 +9139,13 @@
         <v>11</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D260" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E260" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="E260" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="F260" s="12" t="s">
         <v>14</v>
@@ -9165,16 +9165,16 @@
         <v>11</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D261" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E261" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E261" s="12" t="s">
-        <v>276</v>
-      </c>
       <c r="F261" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G261" s="12"/>
       <c r="H261" s="12"/>
@@ -9191,16 +9191,16 @@
         <v>11</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D262" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E262" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E262" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="F262" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G262" s="12"/>
       <c r="H262" s="12"/>
@@ -9217,16 +9217,16 @@
         <v>11</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D263" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E263" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E263" s="12" t="s">
-        <v>280</v>
-      </c>
       <c r="F263" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G263" s="12"/>
       <c r="H263" s="12"/>
